--- a/data/signup_input.xlsx
+++ b/data/signup_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LEARN 4\Kiểm thử\Code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A70CBAD-C346-40F3-8555-8FE4B9AB8E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD6F0B4-4D68-4053-A6C6-19A0A7FBEFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>firstname</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>mexico</t>
+  </si>
+  <si>
+    <t>Phan</t>
+  </si>
+  <si>
+    <t>Văn Tài</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Đình </t>
+  </si>
+  <si>
+    <t>Mạnh</t>
   </si>
 </sst>
 </file>
@@ -425,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,12 +603,50 @@
         <v>11</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>815401505</v>
+      </c>
+      <c r="F8">
+        <v>123</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>123</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>123</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{ECA0B46F-B5D9-4F6F-ACA1-D9BE5A197D42}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{F96AB5CA-BB1D-4699-BB7A-C2B5F574111D}"/>
     <hyperlink ref="E6" r:id="rId3" xr:uid="{7CE30720-6A07-483C-812E-8359687331B4}"/>
     <hyperlink ref="E7" r:id="rId4" xr:uid="{58CD68A9-E113-48F9-BCDE-5A573F7A76CF}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{16E09550-0C24-48EF-8E07-A5344CAF3DC7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
